--- a/docs/test-data/Simple Test Data.xlsx
+++ b/docs/test-data/Simple Test Data.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VH Website\vh-website\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VH Website\vh-website\docs\test-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B867E59-12CB-4485-951C-A30C35D0F0C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D37B1D-658B-4211-984D-A099DD377497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Students" sheetId="1" r:id="rId1"/>
-    <sheet name="Mathematics CT 1" sheetId="8" r:id="rId2"/>
-    <sheet name="English Test 1" sheetId="9" r:id="rId3"/>
-    <sheet name="English Quiz 2" sheetId="10" r:id="rId4"/>
-    <sheet name="English Quiz 1" sheetId="5" r:id="rId5"/>
-    <sheet name="Maths Diagnostic Test" sheetId="7" r:id="rId6"/>
+    <sheet name="English Quiz 3" sheetId="11" r:id="rId2"/>
+    <sheet name="Mathematics CT 1" sheetId="8" r:id="rId3"/>
+    <sheet name="English Test 1" sheetId="9" r:id="rId4"/>
+    <sheet name="English Quiz 2" sheetId="10" r:id="rId5"/>
+    <sheet name="English Quiz 1" sheetId="5" r:id="rId6"/>
+    <sheet name="Maths Diagnostic Test" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="75">
   <si>
     <t>Student ID</t>
   </si>
@@ -1032,11 +1033,1069 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A8377D7-87E1-4BD8-A212-2056BAB3845F}">
+  <dimension ref="A1:M24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="26.19921875" customWidth="1"/>
+    <col min="3" max="3" width="22.59765625" customWidth="1"/>
+    <col min="4" max="4" width="26.8984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>757516</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <f>E2-C2</f>
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <f>C2</f>
+        <v>8</v>
+      </c>
+      <c r="G2">
+        <v>12</v>
+      </c>
+      <c r="H2">
+        <f>I2-G2</f>
+        <v>3</v>
+      </c>
+      <c r="I2">
+        <v>15</v>
+      </c>
+      <c r="J2">
+        <f>G2</f>
+        <v>12</v>
+      </c>
+      <c r="K2">
+        <f>F2+J2</f>
+        <v>20</v>
+      </c>
+      <c r="L2">
+        <f>_xlfn.RANK.EQ(K2,$K$2:$K$24)</f>
+        <v>2</v>
+      </c>
+      <c r="M2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>604057</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D24" si="0">E3-C3</f>
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F24" si="1">C3</f>
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H24" si="2">I3-G3</f>
+        <v>13</v>
+      </c>
+      <c r="I3">
+        <v>15</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J24" si="3">G3</f>
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K24" si="4">F3+J3</f>
+        <v>5</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L24" si="5">_xlfn.RANK.EQ(K3,$K$2:$K$24)</f>
+        <v>10</v>
+      </c>
+      <c r="M3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>934245</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="I4">
+        <v>15</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="M4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>121716</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="I5">
+        <v>15</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="M5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>648081</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>8</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="I6">
+        <v>15</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="M6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>650004</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="I7">
+        <v>15</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="M7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>417695</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="I8">
+        <v>15</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="M8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>400651</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="I9">
+        <v>15</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="M9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>979212</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="I10">
+        <v>15</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="M10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>542127</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="I11">
+        <v>15</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="M11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>678535</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="I12">
+        <v>15</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="M12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>303558</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="I13">
+        <v>15</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="M13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>196303</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14">
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="G14">
+        <v>6</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="I14">
+        <v>15</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="M14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>146014</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="I15">
+        <v>15</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="M15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>907183</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="I16">
+        <v>15</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="M16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>399043</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="I17">
+        <v>15</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="M17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>643388</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="I18">
+        <v>15</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="M18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>421527</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E19">
+        <v>10</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="I19">
+        <v>15</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="M19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>158296</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="I20">
+        <v>15</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="M20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>624690</v>
+      </c>
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21">
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G21">
+        <v>12</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I21">
+        <v>15</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="M21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>575752</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E22">
+        <v>10</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="I22">
+        <v>15</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="M22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>621172</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E23">
+        <v>10</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="I23">
+        <v>15</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="M23">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>459889</v>
+      </c>
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24">
+        <v>10</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>10</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G24">
+        <v>14</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>15</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA4BD87C-7F63-447F-B3A0-BBB61BCDF2BA}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1799,7 +2858,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6DAE4A7-33AC-4249-9023-01333106F7E9}">
   <dimension ref="A1:L24"/>
   <sheetViews>
@@ -2507,7 +3566,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83B5BC0A-3D13-45C3-9F63-827E92BEA675}">
   <dimension ref="A1:M24"/>
   <sheetViews>
@@ -3267,7 +4326,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F06EE0BD-80EF-483C-9A54-8DD2F61A2197}">
   <dimension ref="A1:M24"/>
   <sheetViews>
@@ -4228,7 +5287,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{674708DD-3281-47C4-8C1A-AA7CEEC4A6CE}">
   <dimension ref="A1:G24"/>
   <sheetViews>
